--- a/Turma Intensivo - 439 - Noite Julho 2017/Aula 1/Exerc - Aula Se 2 Media Ponderada.xlsx
+++ b/Turma Intensivo - 439 - Noite Julho 2017/Aula 1/Exerc - Aula Se 2 Media Ponderada.xlsx
@@ -266,7 +266,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -285,6 +285,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -618,8 +619,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5568673" y="0"/>
-          <a:ext cx="1177972" cy="361629"/>
+          <a:off x="5755998" y="0"/>
+          <a:ext cx="1169505" cy="361629"/>
           <a:chOff x="9009915" y="332447"/>
           <a:chExt cx="3182085" cy="978406"/>
         </a:xfrm>
@@ -837,7 +838,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>555470</xdr:colOff>
+      <xdr:colOff>555469</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>62480</xdr:rowOff>
     </xdr:to>
@@ -1436,15 +1437,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C11" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.140625" customWidth="1"/>
     <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.25">
@@ -1532,7 +1533,10 @@
         <f>(C9*2/10)+(D9*3/10)+(E9*5/10)</f>
         <v>10</v>
       </c>
-      <c r="G9" s="10"/>
+      <c r="G9" s="10" t="str">
+        <f>IF(F9&gt;=6,"aprovado",IF(F9&gt;=4,"recuperação","reprovado"))</f>
+        <v>aprovado</v>
+      </c>
     </row>
     <row r="10" spans="2:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
@@ -1551,7 +1555,10 @@
         <f t="shared" ref="F10:F14" si="0">(C10*2/10)+(D10*3/10)+(E10*5/10)</f>
         <v>8.6999999999999993</v>
       </c>
-      <c r="G10" s="10"/>
+      <c r="G10" s="10" t="str">
+        <f t="shared" ref="G10:G14" si="1">IF(F10&gt;=6,"aprovado",IF(F10&gt;=4,"recuperação","reprovado"))</f>
+        <v>aprovado</v>
+      </c>
     </row>
     <row r="11" spans="2:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
@@ -1561,16 +1568,19 @@
         <v>10</v>
       </c>
       <c r="D11" s="7">
-        <v>5.5</v>
+        <v>1</v>
       </c>
       <c r="E11" s="7">
-        <v>9.5</v>
+        <v>1</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" si="0"/>
-        <v>8.4</v>
-      </c>
-      <c r="G11" s="10"/>
+        <v>2.8</v>
+      </c>
+      <c r="G11" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>reprovado</v>
+      </c>
     </row>
     <row r="12" spans="2:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
@@ -1589,7 +1599,10 @@
         <f t="shared" si="0"/>
         <v>3.6</v>
       </c>
-      <c r="G12" s="10"/>
+      <c r="G12" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>reprovado</v>
+      </c>
     </row>
     <row r="13" spans="2:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
@@ -1608,26 +1621,32 @@
         <f t="shared" si="0"/>
         <v>4.8</v>
       </c>
-      <c r="G13" s="10"/>
+      <c r="G13" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>recuperação</v>
+      </c>
     </row>
     <row r="14" spans="2:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="8">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" s="9">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E14" s="9">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" si="0"/>
-        <v>7.75</v>
-      </c>
-      <c r="G14" s="10"/>
+        <v>10</v>
+      </c>
+      <c r="G14" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>aprovado</v>
+      </c>
     </row>
     <row r="15" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1639,7 +1658,10 @@
       <c r="B18" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="10"/>
+      <c r="C18" s="10">
+        <f>COUNTA(B9:B14)</f>
+        <v>6</v>
+      </c>
       <c r="F18" s="11"/>
       <c r="G18" s="11" t="s">
         <v>18</v>
@@ -1650,7 +1672,10 @@
       <c r="B19" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="10"/>
+      <c r="C19" s="10">
+        <f>COUNTIF(G9:G14,"aprovado")</f>
+        <v>3</v>
+      </c>
       <c r="F19" s="11"/>
       <c r="G19" s="11" t="s">
         <v>19</v>
@@ -1661,7 +1686,10 @@
       <c r="B20" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="10"/>
+      <c r="C20" s="10">
+        <f>COUNTIF(G9:G14,"reprovado")</f>
+        <v>2</v>
+      </c>
       <c r="F20" s="11"/>
       <c r="G20" s="11" t="s">
         <v>19</v>
@@ -1672,7 +1700,10 @@
       <c r="B21" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="10"/>
+      <c r="C21" s="10">
+        <f>COUNTIF(F9:F14,10)</f>
+        <v>2</v>
+      </c>
       <c r="F21" s="11"/>
       <c r="G21" s="11" t="s">
         <v>19</v>
@@ -1683,7 +1714,10 @@
       <c r="B22" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="10"/>
+      <c r="C22" s="14">
+        <f>SUMIF(G9:G14,"aprovado",F9:F14)/C19</f>
+        <v>9.5666666666666664</v>
+      </c>
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
       <c r="H22" s="11"/>
